--- a/data/old_posteriors/no_elementary_skills/complex_model/leak/questions-skill-model2a_leak.xlsx
+++ b/data/old_posteriors/no_elementary_skills/complex_model/leak/questions-skill-model2a_leak.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giorgia/repositories/virtual-CAT-itas/data/SoftCOM(original)/new/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giorgia/repositories/virtual-CAT-itas/data/old_posteriors/no_elementary_skills/complex_model/leak/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C4C08D-7A98-2E47-AE54-8EA0FEF3CC99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4A500F-6C58-4544-AC10-7134ED3F7FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="16000" xr2:uid="{3D5E00E8-EA45-C34D-85AA-17AD78DA61C2}"/>
   </bookViews>
@@ -339,27 +339,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -370,6 +349,27 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -698,10 +698,10 @@
   <dimension ref="A1:M112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D153" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="D91" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P14" sqref="P14"/>
+      <selection pane="bottomRight" activeCell="M80" sqref="M80:M82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -714,35 +714,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="23" t="s">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="25"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="29"/>
       <c r="M1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="2" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="26">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="19">
         <v>0</v>
       </c>
       <c r="E2" s="15">
@@ -766,40 +766,40 @@
       <c r="K2" s="15">
         <v>3</v>
       </c>
-      <c r="L2" s="27">
+      <c r="L2" s="20">
         <v>4</v>
       </c>
       <c r="M2"/>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
       <c r="D3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="H3" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="28" t="s">
+      <c r="I3" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="28" t="s">
+      <c r="J3" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="28" t="s">
+      <c r="K3" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="29" t="s">
+      <c r="L3" s="22" t="s">
         <v>22</v>
       </c>
       <c r="M3" s="15" t="s">
@@ -807,34 +807,34 @@
       </c>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
       <c r="D4" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="28" t="s">
+      <c r="H4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="28" t="s">
+      <c r="I4" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="28" t="s">
+      <c r="J4" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="28" t="s">
+      <c r="K4" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="29" t="s">
+      <c r="L4" s="22" t="s">
         <v>32</v>
       </c>
       <c r="M4" s="15" t="s">
@@ -842,7 +842,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="20">
+      <c r="A5" s="24">
         <v>1</v>
       </c>
       <c r="B5" s="4">
@@ -883,7 +883,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="20"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="5">
         <v>2</v>
       </c>
@@ -922,7 +922,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="20"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="5">
         <v>3</v>
       </c>
@@ -961,7 +961,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="20"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="5">
         <v>4</v>
       </c>
@@ -1000,7 +1000,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="20"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="5">
         <v>5</v>
       </c>
@@ -1039,7 +1039,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="20"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="5">
         <v>6</v>
       </c>
@@ -1078,7 +1078,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="20"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="5">
         <v>7</v>
       </c>
@@ -1117,7 +1117,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="20"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="5">
         <v>8</v>
       </c>
@@ -1156,7 +1156,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="20"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="5">
         <v>9</v>
       </c>
@@ -1195,7 +1195,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="21">
+      <c r="A14" s="23">
         <v>2</v>
       </c>
       <c r="B14" s="4">
@@ -1236,7 +1236,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="20"/>
+      <c r="A15" s="24"/>
       <c r="B15" s="5">
         <v>2</v>
       </c>
@@ -1275,7 +1275,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="20"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="5">
         <v>3</v>
       </c>
@@ -1314,7 +1314,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="20"/>
+      <c r="A17" s="24"/>
       <c r="B17" s="5">
         <v>4</v>
       </c>
@@ -1353,7 +1353,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="20"/>
+      <c r="A18" s="24"/>
       <c r="B18" s="5">
         <v>5</v>
       </c>
@@ -1392,7 +1392,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="20"/>
+      <c r="A19" s="24"/>
       <c r="B19" s="5">
         <v>6</v>
       </c>
@@ -1431,7 +1431,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="20"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="5">
         <v>7</v>
       </c>
@@ -1470,7 +1470,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="20"/>
+      <c r="A21" s="24"/>
       <c r="B21" s="5">
         <v>8</v>
       </c>
@@ -1509,7 +1509,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="22"/>
+      <c r="A22" s="25"/>
       <c r="B22" s="6">
         <v>9</v>
       </c>
@@ -1548,7 +1548,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="20">
+      <c r="A23" s="24">
         <v>3</v>
       </c>
       <c r="B23" s="5">
@@ -1589,7 +1589,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="20"/>
+      <c r="A24" s="24"/>
       <c r="B24" s="5">
         <v>2</v>
       </c>
@@ -1628,7 +1628,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="20"/>
+      <c r="A25" s="24"/>
       <c r="B25" s="5">
         <v>3</v>
       </c>
@@ -1667,7 +1667,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="20"/>
+      <c r="A26" s="24"/>
       <c r="B26" s="5">
         <v>4</v>
       </c>
@@ -1706,7 +1706,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="20"/>
+      <c r="A27" s="24"/>
       <c r="B27" s="5">
         <v>5</v>
       </c>
@@ -1745,7 +1745,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="20"/>
+      <c r="A28" s="24"/>
       <c r="B28" s="5">
         <v>6</v>
       </c>
@@ -1784,7 +1784,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="20"/>
+      <c r="A29" s="24"/>
       <c r="B29" s="5">
         <v>7</v>
       </c>
@@ -1823,7 +1823,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="20"/>
+      <c r="A30" s="24"/>
       <c r="B30" s="5">
         <v>8</v>
       </c>
@@ -1862,7 +1862,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="20"/>
+      <c r="A31" s="24"/>
       <c r="B31" s="5">
         <v>9</v>
       </c>
@@ -1901,7 +1901,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="21">
+      <c r="A32" s="23">
         <v>4</v>
       </c>
       <c r="B32" s="4">
@@ -1942,7 +1942,7 @@
       </c>
     </row>
     <row r="33" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="20"/>
+      <c r="A33" s="24"/>
       <c r="B33" s="5">
         <v>2</v>
       </c>
@@ -1981,7 +1981,7 @@
       </c>
     </row>
     <row r="34" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="20"/>
+      <c r="A34" s="24"/>
       <c r="B34" s="5">
         <v>3</v>
       </c>
@@ -2020,7 +2020,7 @@
       </c>
     </row>
     <row r="35" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="20"/>
+      <c r="A35" s="24"/>
       <c r="B35" s="5">
         <v>4</v>
       </c>
@@ -2059,7 +2059,7 @@
       </c>
     </row>
     <row r="36" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="20"/>
+      <c r="A36" s="24"/>
       <c r="B36" s="5">
         <v>5</v>
       </c>
@@ -2098,7 +2098,7 @@
       </c>
     </row>
     <row r="37" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="20"/>
+      <c r="A37" s="24"/>
       <c r="B37" s="5">
         <v>6</v>
       </c>
@@ -2137,7 +2137,7 @@
       </c>
     </row>
     <row r="38" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="20"/>
+      <c r="A38" s="24"/>
       <c r="B38" s="5">
         <v>7</v>
       </c>
@@ -2176,7 +2176,7 @@
       </c>
     </row>
     <row r="39" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="20"/>
+      <c r="A39" s="24"/>
       <c r="B39" s="5">
         <v>8</v>
       </c>
@@ -2215,7 +2215,7 @@
       </c>
     </row>
     <row r="40" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="22"/>
+      <c r="A40" s="25"/>
       <c r="B40" s="6">
         <v>9</v>
       </c>
@@ -2254,7 +2254,7 @@
       </c>
     </row>
     <row r="41" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="20">
+      <c r="A41" s="24">
         <v>5</v>
       </c>
       <c r="B41" s="5">
@@ -2295,7 +2295,7 @@
       </c>
     </row>
     <row r="42" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="20"/>
+      <c r="A42" s="24"/>
       <c r="B42" s="5">
         <v>2</v>
       </c>
@@ -2334,7 +2334,7 @@
       </c>
     </row>
     <row r="43" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="20"/>
+      <c r="A43" s="24"/>
       <c r="B43" s="5">
         <v>3</v>
       </c>
@@ -2373,7 +2373,7 @@
       </c>
     </row>
     <row r="44" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="20"/>
+      <c r="A44" s="24"/>
       <c r="B44" s="5">
         <v>4</v>
       </c>
@@ -2412,7 +2412,7 @@
       </c>
     </row>
     <row r="45" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="20"/>
+      <c r="A45" s="24"/>
       <c r="B45" s="5">
         <v>5</v>
       </c>
@@ -2451,7 +2451,7 @@
       </c>
     </row>
     <row r="46" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="20"/>
+      <c r="A46" s="24"/>
       <c r="B46" s="5">
         <v>6</v>
       </c>
@@ -2490,7 +2490,7 @@
       </c>
     </row>
     <row r="47" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="20"/>
+      <c r="A47" s="24"/>
       <c r="B47" s="5">
         <v>7</v>
       </c>
@@ -2529,7 +2529,7 @@
       </c>
     </row>
     <row r="48" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="20"/>
+      <c r="A48" s="24"/>
       <c r="B48" s="5">
         <v>8</v>
       </c>
@@ -2568,7 +2568,7 @@
       </c>
     </row>
     <row r="49" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="20"/>
+      <c r="A49" s="24"/>
       <c r="B49" s="5">
         <v>9</v>
       </c>
@@ -2607,7 +2607,7 @@
       </c>
     </row>
     <row r="50" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="21">
+      <c r="A50" s="23">
         <v>6</v>
       </c>
       <c r="B50" s="4">
@@ -2648,7 +2648,7 @@
       </c>
     </row>
     <row r="51" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="20"/>
+      <c r="A51" s="24"/>
       <c r="B51" s="5">
         <v>2</v>
       </c>
@@ -2687,7 +2687,7 @@
       </c>
     </row>
     <row r="52" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="20"/>
+      <c r="A52" s="24"/>
       <c r="B52" s="5">
         <v>3</v>
       </c>
@@ -2726,7 +2726,7 @@
       </c>
     </row>
     <row r="53" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="20"/>
+      <c r="A53" s="24"/>
       <c r="B53" s="5">
         <v>4</v>
       </c>
@@ -2765,7 +2765,7 @@
       </c>
     </row>
     <row r="54" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="20"/>
+      <c r="A54" s="24"/>
       <c r="B54" s="5">
         <v>5</v>
       </c>
@@ -2804,7 +2804,7 @@
       </c>
     </row>
     <row r="55" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="20"/>
+      <c r="A55" s="24"/>
       <c r="B55" s="5">
         <v>6</v>
       </c>
@@ -2843,7 +2843,7 @@
       </c>
     </row>
     <row r="56" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="20"/>
+      <c r="A56" s="24"/>
       <c r="B56" s="5">
         <v>7</v>
       </c>
@@ -2882,7 +2882,7 @@
       </c>
     </row>
     <row r="57" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="20"/>
+      <c r="A57" s="24"/>
       <c r="B57" s="5">
         <v>8</v>
       </c>
@@ -2921,7 +2921,7 @@
       </c>
     </row>
     <row r="58" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="22"/>
+      <c r="A58" s="25"/>
       <c r="B58" s="6">
         <v>9</v>
       </c>
@@ -2960,7 +2960,7 @@
       </c>
     </row>
     <row r="59" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="20">
+      <c r="A59" s="24">
         <v>7</v>
       </c>
       <c r="B59" s="5">
@@ -3001,7 +3001,7 @@
       </c>
     </row>
     <row r="60" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="20"/>
+      <c r="A60" s="24"/>
       <c r="B60" s="5">
         <v>2</v>
       </c>
@@ -3040,7 +3040,7 @@
       </c>
     </row>
     <row r="61" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="20"/>
+      <c r="A61" s="24"/>
       <c r="B61" s="5">
         <v>3</v>
       </c>
@@ -3079,7 +3079,7 @@
       </c>
     </row>
     <row r="62" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="20"/>
+      <c r="A62" s="24"/>
       <c r="B62" s="5">
         <v>4</v>
       </c>
@@ -3118,7 +3118,7 @@
       </c>
     </row>
     <row r="63" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="20"/>
+      <c r="A63" s="24"/>
       <c r="B63" s="5">
         <v>5</v>
       </c>
@@ -3157,7 +3157,7 @@
       </c>
     </row>
     <row r="64" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="20"/>
+      <c r="A64" s="24"/>
       <c r="B64" s="5">
         <v>6</v>
       </c>
@@ -3196,7 +3196,7 @@
       </c>
     </row>
     <row r="65" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="20"/>
+      <c r="A65" s="24"/>
       <c r="B65" s="5">
         <v>7</v>
       </c>
@@ -3235,7 +3235,7 @@
       </c>
     </row>
     <row r="66" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="20"/>
+      <c r="A66" s="24"/>
       <c r="B66" s="5">
         <v>8</v>
       </c>
@@ -3274,7 +3274,7 @@
       </c>
     </row>
     <row r="67" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="20"/>
+      <c r="A67" s="24"/>
       <c r="B67" s="5">
         <v>9</v>
       </c>
@@ -3313,7 +3313,7 @@
       </c>
     </row>
     <row r="68" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="21">
+      <c r="A68" s="23">
         <v>8</v>
       </c>
       <c r="B68" s="4">
@@ -3354,7 +3354,7 @@
       </c>
     </row>
     <row r="69" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="20"/>
+      <c r="A69" s="24"/>
       <c r="B69" s="5">
         <v>2</v>
       </c>
@@ -3393,7 +3393,7 @@
       </c>
     </row>
     <row r="70" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="20"/>
+      <c r="A70" s="24"/>
       <c r="B70" s="5">
         <v>3</v>
       </c>
@@ -3432,7 +3432,7 @@
       </c>
     </row>
     <row r="71" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="20"/>
+      <c r="A71" s="24"/>
       <c r="B71" s="5">
         <v>4</v>
       </c>
@@ -3471,7 +3471,7 @@
       </c>
     </row>
     <row r="72" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="20"/>
+      <c r="A72" s="24"/>
       <c r="B72" s="5">
         <v>5</v>
       </c>
@@ -3510,7 +3510,7 @@
       </c>
     </row>
     <row r="73" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="20"/>
+      <c r="A73" s="24"/>
       <c r="B73" s="5">
         <v>6</v>
       </c>
@@ -3549,7 +3549,7 @@
       </c>
     </row>
     <row r="74" spans="1:13" s="3" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="20"/>
+      <c r="A74" s="24"/>
       <c r="B74" s="5">
         <v>7</v>
       </c>
@@ -3588,7 +3588,7 @@
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A75" s="20"/>
+      <c r="A75" s="24"/>
       <c r="B75" s="5">
         <v>8</v>
       </c>
@@ -3627,7 +3627,7 @@
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A76" s="22"/>
+      <c r="A76" s="25"/>
       <c r="B76" s="6">
         <v>9</v>
       </c>
@@ -3666,7 +3666,7 @@
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A77" s="20">
+      <c r="A77" s="24">
         <v>9</v>
       </c>
       <c r="B77" s="5">
@@ -3707,7 +3707,7 @@
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A78" s="20"/>
+      <c r="A78" s="24"/>
       <c r="B78" s="5">
         <v>2</v>
       </c>
@@ -3746,7 +3746,7 @@
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A79" s="20"/>
+      <c r="A79" s="24"/>
       <c r="B79" s="5">
         <v>3</v>
       </c>
@@ -3785,7 +3785,7 @@
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A80" s="20"/>
+      <c r="A80" s="24"/>
       <c r="B80" s="5"/>
       <c r="C80" s="3" t="s">
         <v>6</v>
@@ -3799,12 +3799,10 @@
       <c r="J80" s="12"/>
       <c r="K80" s="12"/>
       <c r="L80" s="12"/>
-      <c r="M80" s="16">
-        <v>0.1</v>
-      </c>
+      <c r="M80" s="16"/>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A81" s="20"/>
+      <c r="A81" s="24"/>
       <c r="B81" s="5"/>
       <c r="C81" s="3" t="s">
         <v>7</v>
@@ -3818,12 +3816,10 @@
       <c r="J81" s="12"/>
       <c r="K81" s="12"/>
       <c r="L81" s="12"/>
-      <c r="M81" s="16">
-        <v>0.1</v>
-      </c>
+      <c r="M81" s="16"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A82" s="20"/>
+      <c r="A82" s="24"/>
       <c r="B82" s="5"/>
       <c r="C82" s="3" t="s">
         <v>8</v>
@@ -3837,12 +3833,10 @@
       <c r="J82" s="12"/>
       <c r="K82" s="12"/>
       <c r="L82" s="12"/>
-      <c r="M82" s="16">
-        <v>0.1</v>
-      </c>
+      <c r="M82" s="16"/>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A83" s="20"/>
+      <c r="A83" s="24"/>
       <c r="B83" s="5">
         <v>7</v>
       </c>
@@ -3881,7 +3875,7 @@
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A84" s="20"/>
+      <c r="A84" s="24"/>
       <c r="B84" s="5">
         <v>8</v>
       </c>
@@ -3920,7 +3914,7 @@
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A85" s="20"/>
+      <c r="A85" s="24"/>
       <c r="B85" s="5">
         <v>9</v>
       </c>
@@ -3959,7 +3953,7 @@
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A86" s="21">
+      <c r="A86" s="23">
         <v>10</v>
       </c>
       <c r="B86" s="4">
@@ -4000,7 +3994,7 @@
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A87" s="20"/>
+      <c r="A87" s="24"/>
       <c r="B87" s="5">
         <v>2</v>
       </c>
@@ -4039,7 +4033,7 @@
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A88" s="20"/>
+      <c r="A88" s="24"/>
       <c r="B88" s="5">
         <v>3</v>
       </c>
@@ -4078,7 +4072,7 @@
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A89" s="20"/>
+      <c r="A89" s="24"/>
       <c r="B89" s="5">
         <v>4</v>
       </c>
@@ -4117,7 +4111,7 @@
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A90" s="20"/>
+      <c r="A90" s="24"/>
       <c r="B90" s="5">
         <v>5</v>
       </c>
@@ -4156,7 +4150,7 @@
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A91" s="20"/>
+      <c r="A91" s="24"/>
       <c r="B91" s="5">
         <v>6</v>
       </c>
@@ -4195,7 +4189,7 @@
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A92" s="20"/>
+      <c r="A92" s="24"/>
       <c r="B92" s="5">
         <v>7</v>
       </c>
@@ -4234,7 +4228,7 @@
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A93" s="20"/>
+      <c r="A93" s="24"/>
       <c r="B93" s="5">
         <v>8</v>
       </c>
@@ -4273,7 +4267,7 @@
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A94" s="22"/>
+      <c r="A94" s="25"/>
       <c r="B94" s="6">
         <v>9</v>
       </c>
@@ -4312,7 +4306,7 @@
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A95" s="20">
+      <c r="A95" s="24">
         <v>11</v>
       </c>
       <c r="B95" s="5">
@@ -4353,7 +4347,7 @@
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A96" s="20"/>
+      <c r="A96" s="24"/>
       <c r="B96" s="5">
         <v>2</v>
       </c>
@@ -4392,7 +4386,7 @@
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A97" s="20"/>
+      <c r="A97" s="24"/>
       <c r="B97" s="5">
         <v>3</v>
       </c>
@@ -4431,7 +4425,7 @@
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A98" s="20"/>
+      <c r="A98" s="24"/>
       <c r="B98" s="5">
         <v>4</v>
       </c>
@@ -4470,7 +4464,7 @@
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A99" s="20"/>
+      <c r="A99" s="24"/>
       <c r="B99" s="5">
         <v>5</v>
       </c>
@@ -4509,7 +4503,7 @@
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A100" s="20"/>
+      <c r="A100" s="24"/>
       <c r="B100" s="5">
         <v>6</v>
       </c>
@@ -4548,7 +4542,7 @@
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A101" s="20"/>
+      <c r="A101" s="24"/>
       <c r="B101" s="5">
         <v>7</v>
       </c>
@@ -4587,7 +4581,7 @@
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A102" s="20"/>
+      <c r="A102" s="24"/>
       <c r="B102" s="5">
         <v>8</v>
       </c>
@@ -4626,7 +4620,7 @@
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A103" s="20"/>
+      <c r="A103" s="24"/>
       <c r="B103" s="5">
         <v>9</v>
       </c>
@@ -4665,7 +4659,7 @@
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A104" s="21">
+      <c r="A104" s="23">
         <v>12</v>
       </c>
       <c r="B104" s="4">
@@ -4706,7 +4700,7 @@
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A105" s="20"/>
+      <c r="A105" s="24"/>
       <c r="B105" s="5">
         <v>2</v>
       </c>
@@ -4745,7 +4739,7 @@
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A106" s="20"/>
+      <c r="A106" s="24"/>
       <c r="B106" s="5">
         <v>3</v>
       </c>
@@ -4784,7 +4778,7 @@
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A107" s="20"/>
+      <c r="A107" s="24"/>
       <c r="B107" s="5">
         <v>4</v>
       </c>
@@ -4823,7 +4817,7 @@
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A108" s="20"/>
+      <c r="A108" s="24"/>
       <c r="B108" s="5">
         <v>5</v>
       </c>
@@ -4862,7 +4856,7 @@
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A109" s="20"/>
+      <c r="A109" s="24"/>
       <c r="B109" s="5">
         <v>6</v>
       </c>
@@ -4901,7 +4895,7 @@
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A110" s="20"/>
+      <c r="A110" s="24"/>
       <c r="B110" s="5"/>
       <c r="C110" s="10" t="s">
         <v>9</v>
@@ -4915,12 +4909,10 @@
       <c r="J110" s="12"/>
       <c r="K110" s="12"/>
       <c r="L110" s="12"/>
-      <c r="M110" s="16">
-        <v>0.1</v>
-      </c>
+      <c r="M110" s="16"/>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A111" s="20"/>
+      <c r="A111" s="24"/>
       <c r="B111" s="5"/>
       <c r="C111" s="10" t="s">
         <v>10</v>
@@ -4934,12 +4926,10 @@
       <c r="J111" s="7"/>
       <c r="K111" s="12"/>
       <c r="L111" s="12"/>
-      <c r="M111" s="16">
-        <v>0.1</v>
-      </c>
+      <c r="M111" s="16"/>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A112" s="22"/>
+      <c r="A112" s="25"/>
       <c r="B112" s="6"/>
       <c r="C112" s="11" t="s">
         <v>11</v>
@@ -4953,17 +4943,14 @@
       <c r="J112" s="8"/>
       <c r="K112" s="8"/>
       <c r="L112" s="14"/>
-      <c r="M112" s="16">
-        <v>0.1</v>
-      </c>
+      <c r="M112" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A68:A76"/>
-    <mergeCell ref="A77:A85"/>
-    <mergeCell ref="A86:A94"/>
-    <mergeCell ref="A95:A103"/>
-    <mergeCell ref="A104:A112"/>
+    <mergeCell ref="C1:C4"/>
+    <mergeCell ref="B1:B4"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="D1:L1"/>
     <mergeCell ref="A5:A13"/>
     <mergeCell ref="A59:A67"/>
     <mergeCell ref="A14:A22"/>
@@ -4971,10 +4958,11 @@
     <mergeCell ref="A32:A40"/>
     <mergeCell ref="A41:A49"/>
     <mergeCell ref="A50:A58"/>
-    <mergeCell ref="C1:C4"/>
-    <mergeCell ref="B1:B4"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="D1:L1"/>
+    <mergeCell ref="A68:A76"/>
+    <mergeCell ref="A77:A85"/>
+    <mergeCell ref="A86:A94"/>
+    <mergeCell ref="A95:A103"/>
+    <mergeCell ref="A104:A112"/>
   </mergeCells>
   <conditionalFormatting sqref="D5:L112">
     <cfRule type="colorScale" priority="2">
